--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/47_Kayseri_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/47_Kayseri_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5878C37A-5033-4688-BC88-3E1A438CD88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1004AEAC-1847-49A0-A270-43E5ED1BAD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{D78BF583-A412-4B2A-B8AE-C6522FE8CB17}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{F066E90F-2531-4430-ADF7-29C5578F5810}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F6C3CD42-5506-47AF-88DD-AB71466B91D6}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1DFD17F3-946D-4392-A80F-4BF9714E7108}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{85298FD5-97AA-45EB-B41B-7F0817059D20}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B34FCCE6-2E21-49B7-AD65-563272962431}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6A326932-4380-4D75-9601-B84B95128B91}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C2F4E7FD-C844-4953-AF1C-4EE6B20DB59B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F3F9FA57-B7FE-4CD3-BEA8-4BF7C235F280}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{53CC7B88-6D04-4D21-B9F8-22F9532C62E8}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BA0E913F-7AC9-42C1-BACB-346A06EB0573}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{066A0024-E48D-466F-86AB-D72C67373E5C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{25221409-5B85-4F28-A0DA-DB70A58B83C5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D0E6F839-E88F-4FFA-BCEE-92D681C25B18}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{59473A68-0732-4D08-B2C2-344264119086}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2FF90133-1AE1-441D-9D45-B85A9BD5A7FC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC3DAE8-4186-4816-8C0A-97286EDE8AFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381B2EA5-369F-45F9-BFB8-437094D9AC31}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2639,18 +2639,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADBB8F26-9738-4ACD-8F24-759BC92A1A57}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A6B6142-7357-4D80-AF9F-34F73EF6EF33}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F6101E2E-8663-4440-9FBA-405D8A0FCCA2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{422582E7-8E37-4030-8E55-45597398DE72}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6750FF8F-9F67-47A8-A8B1-424996AA1AD3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{18DF6CD5-E842-484F-AB8A-11D7FCCB3A13}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69715D62-B890-43B2-A954-029C76A4A8A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A085BD8-89DA-4667-A7B3-367722FBC49D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C30F387-F4B0-42BA-92D7-7589738DF290}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6965C831-B865-4789-8116-797935224E6C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{251807BD-773E-4360-8E4B-16C73383A8BE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2121754F-C793-4869-8931-599A06FBC481}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19F2C251-D857-42D9-821A-49FA410620A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0202878C-32ED-424B-A620-8DD4437B676A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A7DBC300-B0BF-4D7D-B1B9-5F8A8AD6B082}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C927E335-5B81-417C-8D42-6CD946F0BC2E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A510871-33F5-4FDC-90CA-DDE6DC40FDB1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FB6A3C6C-DEF8-4968-AFB0-EF79DA763139}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A9B834B-732C-4687-BE05-55E61585B297}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{059E3A05-5984-428E-9909-CDD793D1B47F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C2AEDE7-E3AF-4132-A92A-9ADF028BA4E0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1B447FBB-1BDE-4BA9-974F-C7CF3FA81899}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35E5C6F6-93B1-44DF-BDCE-612191745602}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC40385A-7B87-4D62-AF2D-EEB410304FDE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2663,7 +2663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3143B14-4E7B-4B15-99D2-4526EF9F86B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F4688-7FE3-48D7-9135-59E0D47D8306}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3948,18 +3948,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26815B6D-CC94-4D2D-B0E7-EE969B56412D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73EDB911-13E3-46FF-9874-85816819262C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8BF28C55-BF6A-4B61-86FA-3664A5B1BD4A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A2594B84-529D-4F17-AB41-62267DFE7B82}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0955719F-4753-470C-BB89-D94268FF68C4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{51D98FD1-4714-49ED-AB8C-2466433AB56E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62E5F650-BAD5-4E56-AC1E-90C1167184CF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE9326AD-A46A-4352-B61F-ED32E9E7C047}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{983778B7-BA1C-4AD3-ACD7-64B18B1454E9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F3A08719-9099-4A26-A9E1-D48398543D61}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B4577E9-CFCA-4AC9-A5D7-C1B7B3BD158D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF4DB034-5FFD-4468-83D2-711A7A9A2A2D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FAA1122-3A03-4E79-92C7-43E4C93B6D70}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{834E35F4-F6FA-4588-88A8-E09537CECD63}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F075053C-86B7-41F9-85CD-DDE8BB900806}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38152113-CD2D-44D4-A0C4-B5FDBAF970D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C9E231F-4249-4911-8BC6-96E04E7AB3E4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7E2326F8-A95C-40DA-8951-42579644B56B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3BE65BFF-7BC0-4939-94A7-CB15F6743DF2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCBB9D42-7E85-499E-AFDE-ACCDEB95C51A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DD2AD95-15DC-44DB-B5A8-5DC1A7C2A354}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{04BADE0D-EAC1-4B24-8377-2BA101894B4E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{209A7A72-F1CB-4A47-B70B-23C23F670694}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{712D8E11-0ABA-4285-9A35-783A6A7D0EB8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3972,7 +3972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5919AC3C-FF51-4DC9-8C89-B84B21195D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D957292-60A5-494B-AE6A-25034AC2A72C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5257,18 +5257,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B1FACDB-7889-4C38-B368-B96795D83513}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D02D7185-EF39-4C36-A637-5EA83D2FEBCF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E71F1F53-073B-4E8D-B97A-ED2D1B77D5F8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16FDB8DD-8E34-492C-97A9-CEBEF133152F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{050F87A0-0F3C-4162-99BD-6E45E1CB4403}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BF00E632-0414-4A44-92A4-CF671DFD781E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{921BE883-DC86-41EF-BE29-5C52B0574F5A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6131840E-03B4-40C4-8F79-B38B4A8B2808}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52DB9B08-6F9E-4E2C-9D11-FAA67000C77A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D6C50A2D-7B37-4712-BD79-67C2A4617408}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12856993-8C53-4B21-8102-4D7877E7FCA1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB425C9A-26F4-4F6B-B305-208DD9C3E0BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D1FC014-F318-47EF-81C7-DCF53160ADB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73204E02-D2B0-4435-BF00-FF300A2A036B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BD6BC6AC-2AD5-44CF-8D1D-59F2813D73D1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5DC23432-EEBA-4DDB-98E8-FD09948A67CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E91412A-DB1D-4D5A-B8F2-B2FB5389B00C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B87DA779-6B3E-4140-B853-3335FF8C428F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1B0F091-EE4B-4707-A7DA-A942B74D97E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BDD2E0F0-23A7-4ED6-ACF4-AF022AF5ACB7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{736A9A4D-74D8-4C5A-BCF0-6ABF2890DDEA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E387F50F-70EC-4FED-BD7F-F372FABD93FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA480010-59DF-4EF9-A956-C41F6C084DF6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F6A0039-3191-4555-B2FA-A6ECB936EFA0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5281,7 +5281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78346A13-1171-4DB5-9293-0363F52E18E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91082275-828F-481C-B2EF-40A1D4384DF3}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6549,18 +6549,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{088222DD-F588-4501-8F28-72DCC9FBA1EC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E9D0CA4-C606-4D8D-8F9C-F9A03AB8CCB4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E155EC85-0B0C-4AA7-B74A-0C05F5B14A8C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5684E5BD-54DF-4910-BEAC-B111EB04FD33}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B316C416-1B29-41D8-A32C-96B7CAB51E3C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3F0ADFF3-0B4E-4B6C-B5AB-B0664315ABD2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE5B1241-3A17-4754-AE9B-170DAD6582C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67D7D7C2-3285-415D-87FC-8F8C165196F5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DD78735-0431-461C-90EF-CBC94A3F5413}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CC4A55A4-9A1B-4C95-8449-0D844F398F3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E9DACEE-597F-4A50-ABC8-27805F142AF7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A652F25-E2FF-4E89-881E-A80BA3A7EA14}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{393CF97B-EF55-4A58-9258-CC772F23FB88}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{440C747A-DEE4-4E0B-AD04-ADD5A777C389}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA126D12-3BC6-4958-9CC7-10D53D2567D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{61492F7A-EB1D-4540-A211-1537DAB17CC8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F976F438-FDC6-4C58-A200-6B6246C03097}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5D09D660-04B8-418B-8789-8EB4E6E04694}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B1371F6-B1D3-4EB9-8628-E027186A43B2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A44134C8-45C7-4F77-8478-60BE40AB70E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A09BF73-6116-4464-AF4A-ECF10B2C123A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{17FD0186-1783-4BBE-AF9C-AFB71790D0E2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5AF76DAD-B934-46CD-A97F-58687E86193A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{837F384D-6703-4FE0-A675-FE086F5A43D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6573,7 +6573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2DABA5-2CF0-413F-970C-BC9A097114AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF4B3E2-C699-485D-B458-62D176D17AA2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7882,18 +7882,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72944660-5D19-4C1A-9FE2-9CF78422DF9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2454F137-D82A-42A2-BC79-AE5113B6E7E4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7B385218-B9F2-43DD-A334-82C00DA29645}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE066927-AA5A-44A7-BF6B-950935557733}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9247AEC2-8673-4F3D-B6EC-9CE887DC5905}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C028B19D-EB40-4249-B11F-BED93874FB52}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{81BD6F54-F629-439C-B241-CF796DA3417E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BE103D6-CEAE-4BFA-90BD-EE1DD1959E42}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0890728A-4BF4-47C8-A9F3-0C6AB0190606}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{039DE573-A128-424F-BCFD-EDE0CFE90EE3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39FE3A47-5D24-46CE-92B9-16C8049A3026}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52C3BA20-021A-48FE-987B-2F17873D3F5B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2724F88-B415-43EA-9713-165A6CB40904}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8426275-43D2-4024-9B0A-E3423C3C5462}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CC26590D-A2C4-46CE-A893-CA9A4B327D62}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{44B6128C-EA20-415F-A01B-D22089E9BBB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C03CCE0-56F2-4F29-B4BF-BBAE604183D2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AB69B2C7-4451-4D8C-B8F7-92A562D595DE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F3AA45E-978E-42ED-A177-DC7E82F50C7C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D46056EC-558A-4AB4-8051-5BFFF07F78B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{473B58DE-250A-4071-84DB-D94CB2852459}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{048F1F84-16D3-4B8C-BF0F-8BE9EB719A16}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22EA7E98-75A1-40E1-A69A-64F834AEB6B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1DE5149-2EEC-4D66-B5CF-3529E0C1742B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7906,7 +7906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9580D9D4-4FA5-430E-BFF1-3B60206D2F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F6993F-3DFF-4D49-9DEB-129D61112EEE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9215,18 +9215,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FD57B74-9B4F-4AAB-90EF-F465F98376E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CCB0EDC7-D135-474D-9E55-91F189344CD4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5ADB95E9-64D9-443D-8904-B6A15FF78406}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5D7402AC-7057-4A44-A299-2A82A3B72517}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBD4ED82-E3CB-4DD2-97C2-15533C1DDA7F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{476355C1-A4E0-403A-A0D7-14CDB225CB49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59B073BD-B0DD-4A1D-91A4-0E43DF4F4B3D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3776E84-307D-49EE-BBE8-F39FF04C9236}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25DA2241-5577-4AD7-82CC-5F7DFC613A8C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E24B3DFE-F15A-466C-B85A-58EEB4D2ABC7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB0E5F91-540A-4430-B5EC-681952C7357A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF1E8C1D-49B1-42D0-9A0B-1EF7DE479258}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E007B814-5815-4695-90BE-9320C295FAFE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E92D569E-CAC0-43D1-ADB7-BCEEA041818A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{95641930-5BE9-4205-BA20-695859CA484C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{888AEA4B-38C7-4E93-90D3-E0E82888F557}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B49D3971-8625-401C-88C8-B248FE6B2241}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E1FEF5EA-1B6E-4C6F-8905-FDAE64DC75D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5DAD1847-4373-4681-94F5-873C6E8818BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{878B26A3-9F50-483B-92A4-217655992FC7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{513DE356-7BC2-404B-A779-B5C0BD3766CD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{29F04CEC-D996-486F-B353-B3EC4EEAD390}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C41561EA-D2A5-4F04-ACF1-5EA32B7D1C44}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40EE73E5-506F-4D3E-B825-C3A46CEB43C0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9239,7 +9239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E747048D-F2BE-460E-B94A-F082C3A29C2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4740E31F-B68D-48FE-9946-3C59418318CE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10548,18 +10548,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E97A2DEA-C0C8-4DE8-B54D-DE759DDD287A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBC538BC-E9B3-40E0-8F8F-290F741C5435}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{49BB0CE3-6434-4295-890A-3DDCC7F00659}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FBC48AA5-AA9D-43AD-9439-F5DF8C6FF308}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F275DAC-7140-4908-9CC8-1D1F3BC10A52}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C1094300-D314-42FD-9C20-28C34D65A08E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3883487-4976-4659-B918-DEB9F17E51F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7C6D764-C2FC-421F-8DC2-66EA7CF9E69C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4F8B188F-2AAA-4FC8-A8C4-AD6F96B9C64B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{230638BC-8BCA-48DF-8ED3-9DB6A40298A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD3DB10A-F2B2-4C06-9B5F-372C4C66AF82}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{101710E7-6810-4862-93CA-8A508BB8AB72}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FAFB165-1154-4435-BA32-FD8BDD2ACC41}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A7D79890-E42F-46EC-BA92-F89BE9C1D5E2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5DF3FA82-917D-45DB-85FA-9437A62B54BF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1792CA60-0DBE-46BA-B96E-FC3BE5DBFBB5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E38DD29-27B3-46B2-95C8-60A37B0AD5DE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{13275808-9882-4F13-81BA-91FEFCC5527B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77F01172-FAD6-4E8A-9A3D-3E5668E786CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3591AE1C-5AC1-4056-97C6-A455EAF65D82}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9098E3F6-C13A-40C5-A611-46A40FDD15A1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{585CFC7E-9F35-442D-BBEB-7F225E140A0A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB6C97ED-0FD6-4598-9E8B-014B7E7CD856}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{39023D25-52B3-48B4-84E3-E0376CA46F0C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10572,7 +10572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80524F26-B51A-4BEF-B27D-0D7DB76278A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB687B04-C285-43B6-BE75-26A8172A33E9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11881,18 +11881,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1DABCEC-7713-4FF3-90D7-97706B30F56A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E68FE545-C890-41AD-AA4F-21BE505D5239}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C8969050-665A-4BA6-B757-81D945C32939}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C38C09DA-3340-4268-87FE-CD16C1E26412}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2BD49CF-5FB9-4E8C-9F32-606C5D564878}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{43FAEFBA-03AD-4B7D-806D-42187F73ADC5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70F39E08-7C96-4E4A-B578-A36D23F7E3FD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E638225-059B-4F86-B45A-77ADD27778B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{835F89F4-6422-46A2-ADB6-5453ACF3F911}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7E9F1F80-680C-4085-8558-97CC285A2CA9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75069194-EAA5-49BA-BFF2-B358498C3773}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{74031AC6-4D4C-4B8A-9702-6B860526704F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B5CBB54-688A-4C1F-BA37-9EC09982D7FF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE93F93B-35ED-4B04-8374-A0110E747E67}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3C134517-2C84-4C4F-BC34-5F1AFB1CFAA1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA9D89F1-6F90-4F1A-AF70-79EECE782235}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A516A1D-FA63-45B4-9939-165A9490A910}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{845E5066-3E38-4BF8-BD06-A66F07FD0159}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C72638DA-B256-4D8A-98D0-3D56ED8CF1E0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC42A3CA-E199-4F32-852F-89504654F0B8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B2BB2E6-78DC-42F2-ADE8-90DBF7A821D0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{052375EE-3B8E-4CC7-9362-6FECFF104E1B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F88B0CAA-5A0B-486A-8F92-D29170146932}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{265928D3-FB12-474B-8E30-6437A9144332}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11905,7 +11905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B574888B-9076-49A3-8FDC-FB7652EF8F36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCA6E1D-9E4E-4AE2-9F53-057A3CA2B9CF}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13202,18 +13202,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8DF04BF4-A8C8-4141-B8AA-612B02A2063F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A54DD9DF-7B8A-4B2E-920C-308627656A6A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D216614C-589E-4922-8931-3266D51F56E8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3C38C82A-3B05-49EE-A052-02F18FF88D4E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B12F43E-B969-455D-B66B-23601D9E8CCE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{35655EDB-2AA7-40BC-84B8-C0D2E27273F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53569847-D6CF-4B95-8745-51B5E2CE3CF9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A2A6049E-1970-4961-A139-C34365BEA50D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D8B118D-ED75-49BD-9BDF-0CB724DB8FC3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EB849AD0-035E-479C-91A6-9DA791B44B4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9341943-D718-445E-9BA6-B05AC7391433}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A10C397A-84AB-4187-8765-E73EF26D85A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90A8CF44-A023-4750-B417-78E0BF889498}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B082F5A2-EE91-49FA-A3B2-326B9D6E8FE5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F756480D-3F71-4229-AF1C-4BAA2FDC37E5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{65597A23-AF48-44B5-8CED-F3551CE7F497}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE232B2E-395C-42BD-B4D7-60875DB529EC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{342AAAAB-62F9-411B-9378-44F8904BD763}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{900D166D-5FB7-4B95-B6F3-408C0E432BD8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC3B190A-BE20-4A5B-893D-7BF48A430235}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D5858A5-6176-4846-B61E-FA32E5ED9655}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ED673D70-08CA-47D8-8D02-7E0F1EDDF3F6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A65E5DF-B84C-4053-B53B-65601698F14F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2CDB95A0-D124-40A7-997F-81BFFBF9E243}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13226,7 +13226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DEE406-EB2D-4AC0-ABD5-D8DD848E9480}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B699352-3504-46BF-AC03-A2E4020BC6B8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14515,18 +14515,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1273857-278A-48F5-92DE-90056318B595}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D4C606E-B9E9-4BE0-8C0E-622203A42641}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7B4A3E39-E8B2-47EE-9390-641141BF428C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C74AD52-1E96-4319-B457-3DB86E7A91D5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42FF72A9-F3E1-4B9C-92FB-EB4D89F9AA08}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B0A945CB-342F-40FA-A3F3-605D6BA916AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96BDC7B6-B40D-4215-A9EF-CED2ADA4ED72}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E64D53E9-4C45-4580-9E82-50593B0305E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21D41BFB-D3C2-468C-9BB7-ABDFC03D6F5F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E8D29732-0EB8-4528-84E5-04212593397D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7F76F30-CA9C-44F1-B55C-64D07FDE6926}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10DBBEBE-DCE3-4B25-9B94-2A169A94BD8A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55DB2EB0-19B5-4F89-803C-2D840A2A99B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB1C0D2D-1128-4BEE-BEDF-A661EE11F3D8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E37351F8-36C0-4059-A683-CF048C8CED77}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB51C66B-06B2-4501-A351-4BBDC67A7BE5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15327F84-A1CF-4E87-9298-C00B362ABC43}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{62910458-A462-4F33-B917-72AD512DB046}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55269F55-DC3F-4E9B-A009-A6CDD3B969FD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E44107D-A2FE-47D0-99E4-8E9D13A676D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3779FDA4-D091-4859-812D-133C908A4F13}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AC30674A-DFDB-498D-A133-34B23D3BED2F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43A73B77-333E-4F5A-811A-E31D053863CE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95288EF7-F9E8-40AE-90B0-40DAE9E4B69F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14539,7 +14539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12A0424-8C22-40D8-88F7-0CC1DB6A72A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7F386F-413D-48C3-8A06-EDCFFAF7C30C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15828,18 +15828,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06EEBE2C-4DF9-4C24-A39E-AB03DE59C997}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59E05055-95EA-4ECB-8952-45C7720007E6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F8AB7FD-0E62-4725-BCAC-9F1660695F54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F1A55CB3-69FE-4A94-980D-5B606007EC0C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{70AB3919-D7BB-4365-9797-461FA4D9307C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CF17CCCA-CBA2-4E7F-9B0E-014E11D00D54}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF0E753A-1FBC-481C-884A-3A6AB07CC3ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A28AB9FC-BDEF-4E4A-B90F-9DCD1540931C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F321131-827E-4530-BF3C-CBD8963054E1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{498675D5-4F48-45CB-ACAD-EC58E4D16589}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{722B7588-B2F4-4308-B215-4A2AAE09D367}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE5CC905-A170-4374-8243-FB7678CC5CC9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FCEFB250-0B0E-4D7F-85DF-1C8988185E29}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68092AA0-EF54-4630-9B12-C11AF45B5A07}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BBACB9AE-DFC1-4F0E-9EEC-76A80A11D41C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABEB397A-76AA-4645-B931-B97572CC75F1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F918744-AA25-4A2D-9120-411A83B65BCD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{954B0299-3391-4F03-BFFB-A6F29182591B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB280A2E-11C6-400D-A70A-005BF97E60B8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F61C81A4-788C-4F9E-B500-B17CA83681D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C84ECDB5-9568-465E-8833-54E538594498}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0FF54CC5-316F-48B6-9F7F-8FE97388DF7E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A31C40D8-B526-4FD4-AB03-5F221E8732F3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7A0E5D4-1281-4E6F-B47F-20191103E5DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15852,7 +15852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39DB94E-0241-41A3-A0B1-48518FD63259}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A86F29F-4029-4761-B6AE-F183E13433B6}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17141,18 +17141,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C474735-990E-465C-9CC4-EFF28C14BBAA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F44BCD9A-774A-4A57-8D49-B86204D4832A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D119F884-450D-4005-B99C-E71C17A78C97}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{444D0480-0A30-4840-A51C-FB239E1F1C06}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{642F9DE6-6E29-4474-967B-B0CDE6FFEFF0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{74B27739-43A6-4504-8AC6-215E02DA26A5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F632C150-BA85-4C5C-BF04-4628490184EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{362FD4DA-6FF8-4CA0-8316-79FFA085F1E4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7AAD3CFE-5044-4309-A34A-5BBF83EBF934}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1103EDCD-B052-419A-83FA-5EEC0A4C046A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59D50593-9A05-4C7B-B5DD-540B4D13B4CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB17F8D3-1B60-4335-B838-1CAAE2EE1B68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51AF1D6E-E910-4345-B0DD-1BAABCFBA15A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{133D7DDF-6619-47D2-BC5D-308256F2E6E4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C0E81DF-DDBD-44D3-991F-139AA64BBF08}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8BC55A74-2444-4875-8E1B-096CBDC1AFE7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41E126E2-52C4-4ABA-A01F-3E333E7DDF6B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2E48E0A9-E3E2-4C78-AC26-28D2F7A6993C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58DBBB96-2AF5-47E2-99EA-F2E5D662D370}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFD6B661-3272-4A74-B5D2-A48A97A65B42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38A32FD5-5BC7-4A08-B29E-CC39F8AC65B3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{06019389-A15B-4EDF-8BF1-10CB5BAAAACF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D87405B7-C840-4884-B18A-E2CB8E9C7A44}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7490D435-E12E-4832-9692-F4077198B0DD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
